--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Carl_Ludwig_Sickler/Friedrich_Carl_Ludwig_Sickler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Carl_Ludwig_Sickler/Friedrich_Carl_Ludwig_Sickler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Carl Ludwig Sickler est un polymathe allemand, né le 30 novembre 1773 à Gräfentonna et mort le 4 août 1836 à Hildburghausen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sickler est diplômé à Gotha, Altenburg et Göttingen où il obtient son doctorat en philologie. De 1805 à 1810, il est le tuteur auprès de l’ambassadeur de Prusse à Rome, Wilhelm von Humboldt (1767-1835). En 1812, il entre à la commission scolaire et est nommé premier directeur d’une nouvelle école, le Gymnasium Georgianum Hildburghausen.
 Il devient un archéologue et un égyptologue réputé, traduisant les parchemins trouvés à Herculanum et étudiant la langue utilisée par les prêtres d’Égypte. Sa description de l’histoire romaine et de la géographie antique (1826) serviront comme manuels scolaires.
@@ -545,7 +559,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gerhard Steiner: Die Sphinx zu Hildburghausen. Friedrich Sickler: Ein schöpferischer Geist der Goethezeit., VCH, Weinheim 1985,  (ISBN 3-527-17553-9)
 Dr. Rudolf Armin Human: Chronik der Stadt Hildburghausen, Hildburghausen 1886</t>
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue allemande de Wikipédia (version du 31 janvier 2009).</t>
         </is>
